--- a/test.xlsx
+++ b/test.xlsx
@@ -1811,7 +1811,7 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="45" customHeight="1">
+    <row r="1" spans="2:5" ht="60" customHeight="1">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="75" customHeight="1">
+    <row r="2" spans="2:5" ht="90" customHeight="1">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="45" customHeight="1">
+    <row r="3" spans="2:5" ht="60" customHeight="1">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1">
+    <row r="4" spans="2:5" ht="45" customHeight="1">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1">
+    <row r="5" spans="2:5" ht="45" customHeight="1">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1">
+    <row r="6" spans="2:5" ht="45" customHeight="1">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="75" customHeight="1">
+    <row r="7" spans="2:5" ht="90" customHeight="1">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="90" customHeight="1">
+    <row r="8" spans="2:5" ht="105" customHeight="1">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1">
+    <row r="9" spans="2:5" ht="45" customHeight="1">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" customHeight="1">
+    <row r="10" spans="2:5" ht="75" customHeight="1">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1">
+    <row r="11" spans="2:5" ht="45" customHeight="1">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="120" customHeight="1">
+    <row r="14" spans="2:5" ht="135" customHeight="1">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1">
+    <row r="16" spans="2:5" ht="45" customHeight="1">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1">
+    <row r="18" spans="2:5" ht="45" customHeight="1">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
+    <row r="19" spans="2:5" ht="45" customHeight="1">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1">
+    <row r="20" spans="2:5" ht="45" customHeight="1">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1">
+    <row r="22" spans="2:5" ht="45" customHeight="1">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1">
+    <row r="23" spans="2:5" ht="45" customHeight="1">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1">
+    <row r="25" spans="2:5" ht="45" customHeight="1">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1">
+    <row r="32" spans="2:5" ht="45" customHeight="1">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="60" customHeight="1">
+    <row r="33" spans="2:5" ht="75" customHeight="1">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1">
+    <row r="39" spans="2:5" ht="45" customHeight="1">
       <c r="B39" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="60" customHeight="1">
+    <row r="59" spans="2:5" ht="75" customHeight="1">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1">
+    <row r="61" spans="2:5" ht="45" customHeight="1">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1">
+    <row r="64" spans="2:5" ht="45" customHeight="1">
       <c r="B64" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="135" customHeight="1">
+    <row r="67" spans="2:5" ht="150" customHeight="1">
       <c r="B67" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="30" customHeight="1">
+    <row r="68" spans="2:5" ht="45" customHeight="1">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="135" customHeight="1">
+    <row r="71" spans="2:5" ht="150" customHeight="1">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="165" customHeight="1">
+    <row r="73" spans="2:5" ht="180" customHeight="1">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="45" customHeight="1">
+    <row r="74" spans="2:5" ht="60" customHeight="1">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="75" customHeight="1">
+    <row r="75" spans="2:5" ht="90" customHeight="1">
       <c r="B75" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="45" customHeight="1">
+    <row r="76" spans="2:5" ht="60" customHeight="1">
       <c r="B76" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="30" customHeight="1">
+    <row r="77" spans="2:5" ht="45" customHeight="1">
       <c r="B77" t="s">
         <v>4</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="30" customHeight="1">
+    <row r="78" spans="2:5" ht="45" customHeight="1">
       <c r="B78" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="30" customHeight="1">
+    <row r="79" spans="2:5" ht="45" customHeight="1">
       <c r="B79" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="75" customHeight="1">
+    <row r="80" spans="2:5" ht="90" customHeight="1">
       <c r="B80" t="s">
         <v>4</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="75" customHeight="1">
+    <row r="81" spans="2:5" ht="90" customHeight="1">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="30" customHeight="1">
+    <row r="82" spans="2:5" ht="45" customHeight="1">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="60" customHeight="1">
+    <row r="83" spans="2:5" ht="75" customHeight="1">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="30" customHeight="1">
+    <row r="84" spans="2:5" ht="45" customHeight="1">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="120" customHeight="1">
+    <row r="87" spans="2:5" ht="135" customHeight="1">
       <c r="B87" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1">
+    <row r="89" spans="2:5" ht="45" customHeight="1">
       <c r="B89" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1">
+    <row r="91" spans="2:5" ht="45" customHeight="1">
       <c r="B91" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="30" customHeight="1">
+    <row r="92" spans="2:5" ht="45" customHeight="1">
       <c r="B92" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1">
+    <row r="93" spans="2:5" ht="45" customHeight="1">
       <c r="B93" t="s">
         <v>4</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="30" customHeight="1">
+    <row r="95" spans="2:5" ht="45" customHeight="1">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="30" customHeight="1">
+    <row r="96" spans="2:5" ht="45" customHeight="1">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="30" customHeight="1">
+    <row r="98" spans="2:5" ht="45" customHeight="1">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="30" customHeight="1">
+    <row r="105" spans="2:5" ht="45" customHeight="1">
       <c r="B105" t="s">
         <v>4</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="60" customHeight="1">
+    <row r="106" spans="2:5" ht="75" customHeight="1">
       <c r="B106" t="s">
         <v>4</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="30" customHeight="1">
+    <row r="112" spans="2:5" ht="45" customHeight="1">
       <c r="B112" t="s">
         <v>4</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="60" customHeight="1">
+    <row r="132" spans="2:5" ht="75" customHeight="1">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="30" customHeight="1">
+    <row r="134" spans="2:5" ht="45" customHeight="1">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="30" customHeight="1">
+    <row r="137" spans="2:5" ht="45" customHeight="1">
       <c r="B137" t="s">
         <v>4</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="135" customHeight="1">
+    <row r="140" spans="2:5" ht="150" customHeight="1">
       <c r="B140" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="30" customHeight="1">
+    <row r="141" spans="2:5" ht="45" customHeight="1">
       <c r="B141" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="135" customHeight="1">
+    <row r="144" spans="2:5" ht="150" customHeight="1">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="165" customHeight="1">
+    <row r="146" spans="2:5" ht="180" customHeight="1">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="45" customHeight="1">
+    <row r="147" spans="2:5" ht="60" customHeight="1">
       <c r="B147" t="s">
         <v>4</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="75" customHeight="1">
+    <row r="148" spans="2:5" ht="90" customHeight="1">
       <c r="B148" t="s">
         <v>4</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="45" customHeight="1">
+    <row r="149" spans="2:5" ht="60" customHeight="1">
       <c r="B149" t="s">
         <v>4</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="30" customHeight="1">
+    <row r="150" spans="2:5" ht="45" customHeight="1">
       <c r="B150" t="s">
         <v>4</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="30" customHeight="1">
+    <row r="151" spans="2:5" ht="45" customHeight="1">
       <c r="B151" t="s">
         <v>4</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="30" customHeight="1">
+    <row r="152" spans="2:5" ht="45" customHeight="1">
       <c r="B152" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="75" customHeight="1">
+    <row r="153" spans="2:5" ht="90" customHeight="1">
       <c r="B153" t="s">
         <v>4</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="75" customHeight="1">
+    <row r="154" spans="2:5" ht="90" customHeight="1">
       <c r="B154" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="30" customHeight="1">
+    <row r="155" spans="2:5" ht="45" customHeight="1">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="60" customHeight="1">
+    <row r="156" spans="2:5" ht="75" customHeight="1">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="30" customHeight="1">
+    <row r="157" spans="2:5" ht="45" customHeight="1">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="120" customHeight="1">
+    <row r="160" spans="2:5" ht="135" customHeight="1">
       <c r="B160" t="s">
         <v>4</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="30" customHeight="1">
+    <row r="162" spans="2:5" ht="45" customHeight="1">
       <c r="B162" t="s">
         <v>4</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="30" customHeight="1">
+    <row r="164" spans="2:5" ht="45" customHeight="1">
       <c r="B164" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="30" customHeight="1">
+    <row r="165" spans="2:5" ht="45" customHeight="1">
       <c r="B165" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="30" customHeight="1">
+    <row r="166" spans="2:5" ht="45" customHeight="1">
       <c r="B166" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="30" customHeight="1">
+    <row r="168" spans="2:5" ht="45" customHeight="1">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="30" customHeight="1">
+    <row r="169" spans="2:5" ht="45" customHeight="1">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="30" customHeight="1">
+    <row r="171" spans="2:5" ht="45" customHeight="1">
       <c r="B171" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="30" customHeight="1">
+    <row r="178" spans="2:5" ht="45" customHeight="1">
       <c r="B178" t="s">
         <v>4</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="60" customHeight="1">
+    <row r="179" spans="2:5" ht="75" customHeight="1">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="30" customHeight="1">
+    <row r="185" spans="2:5" ht="45" customHeight="1">
       <c r="B185" t="s">
         <v>4</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="60" customHeight="1">
+    <row r="205" spans="2:5" ht="75" customHeight="1">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="30" customHeight="1">
+    <row r="207" spans="2:5" ht="45" customHeight="1">
       <c r="B207" t="s">
         <v>4</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="30" customHeight="1">
+    <row r="210" spans="2:5" ht="45" customHeight="1">
       <c r="B210" t="s">
         <v>4</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="135" customHeight="1">
+    <row r="213" spans="2:5" ht="150" customHeight="1">
       <c r="B213" t="s">
         <v>4</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="30" customHeight="1">
+    <row r="214" spans="2:5" ht="45" customHeight="1">
       <c r="B214" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="135" customHeight="1">
+    <row r="217" spans="2:5" ht="150" customHeight="1">
       <c r="B217" t="s">
         <v>4</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="165" customHeight="1">
+    <row r="219" spans="2:5" ht="180" customHeight="1">
       <c r="B219" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="45" customHeight="1">
+    <row r="220" spans="2:5" ht="60" customHeight="1">
       <c r="B220" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="75" customHeight="1">
+    <row r="221" spans="2:5" ht="90" customHeight="1">
       <c r="B221" t="s">
         <v>4</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="45" customHeight="1">
+    <row r="222" spans="2:5" ht="60" customHeight="1">
       <c r="B222" t="s">
         <v>4</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="30" customHeight="1">
+    <row r="223" spans="2:5" ht="45" customHeight="1">
       <c r="B223" t="s">
         <v>4</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="30" customHeight="1">
+    <row r="224" spans="2:5" ht="45" customHeight="1">
       <c r="B224" t="s">
         <v>4</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="30" customHeight="1">
+    <row r="225" spans="2:5" ht="45" customHeight="1">
       <c r="B225" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="75" customHeight="1">
+    <row r="226" spans="2:5" ht="90" customHeight="1">
       <c r="B226" t="s">
         <v>4</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="75" customHeight="1">
+    <row r="227" spans="2:5" ht="90" customHeight="1">
       <c r="B227" t="s">
         <v>4</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="30" customHeight="1">
+    <row r="228" spans="2:5" ht="45" customHeight="1">
       <c r="B228" t="s">
         <v>4</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="60" customHeight="1">
+    <row r="229" spans="2:5" ht="75" customHeight="1">
       <c r="B229" t="s">
         <v>4</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="30" customHeight="1">
+    <row r="230" spans="2:5" ht="45" customHeight="1">
       <c r="B230" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="120" customHeight="1">
+    <row r="233" spans="2:5" ht="135" customHeight="1">
       <c r="B233" t="s">
         <v>4</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="30" customHeight="1">
+    <row r="235" spans="2:5" ht="45" customHeight="1">
       <c r="B235" t="s">
         <v>4</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="30" customHeight="1">
+    <row r="237" spans="2:5" ht="45" customHeight="1">
       <c r="B237" t="s">
         <v>4</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="30" customHeight="1">
+    <row r="238" spans="2:5" ht="45" customHeight="1">
       <c r="B238" t="s">
         <v>4</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="30" customHeight="1">
+    <row r="239" spans="2:5" ht="45" customHeight="1">
       <c r="B239" t="s">
         <v>4</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="30" customHeight="1">
+    <row r="241" spans="2:5" ht="45" customHeight="1">
       <c r="B241" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="30" customHeight="1">
+    <row r="242" spans="2:5" ht="45" customHeight="1">
       <c r="B242" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="30" customHeight="1">
+    <row r="244" spans="2:5" ht="45" customHeight="1">
       <c r="B244" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="30" customHeight="1">
+    <row r="251" spans="2:5" ht="45" customHeight="1">
       <c r="B251" t="s">
         <v>4</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="60" customHeight="1">
+    <row r="252" spans="2:5" ht="75" customHeight="1">
       <c r="B252" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="30" customHeight="1">
+    <row r="258" spans="2:5" ht="45" customHeight="1">
       <c r="B258" t="s">
         <v>4</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="60" customHeight="1">
+    <row r="278" spans="2:5" ht="75" customHeight="1">
       <c r="B278" t="s">
         <v>4</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="30" customHeight="1">
+    <row r="280" spans="2:5" ht="45" customHeight="1">
       <c r="B280" t="s">
         <v>4</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="30" customHeight="1">
+    <row r="283" spans="2:5" ht="45" customHeight="1">
       <c r="B283" t="s">
         <v>4</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="135" customHeight="1">
+    <row r="286" spans="2:5" ht="150" customHeight="1">
       <c r="B286" t="s">
         <v>4</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="30" customHeight="1">
+    <row r="287" spans="2:5" ht="45" customHeight="1">
       <c r="B287" t="s">
         <v>4</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="135" customHeight="1">
+    <row r="290" spans="2:5" ht="150" customHeight="1">
       <c r="B290" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="165" customHeight="1">
+    <row r="292" spans="2:5" ht="180" customHeight="1">
       <c r="B292" t="s">
         <v>4</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1758,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1767,1682 +1767,1682 @@
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
       <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="H10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
       <c r="G24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>132</v>
-      </c>
       <c r="G27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
         <v>75</v>
       </c>
-      <c r="H27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
       <c r="G29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" t="s">
         <v>75</v>
       </c>
-      <c r="H29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" t="s">
         <v>76</v>
       </c>
-      <c r="H35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" t="s">
-        <v>171</v>
-      </c>
-      <c r="G47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>190</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" t="s">
-        <v>193</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
-      <c r="G63" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" t="s">
-        <v>196</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" t="s">
-        <v>198</v>
-      </c>
-      <c r="G65" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" t="s">
-        <v>200</v>
-      </c>
-      <c r="G66" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" t="s">
-        <v>203</v>
-      </c>
-      <c r="G68" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" t="s">
-        <v>207</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" t="s">
-        <v>208</v>
-      </c>
       <c r="G71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
         <v>76</v>
       </c>
-      <c r="H71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" t="s">
-        <v>210</v>
-      </c>
       <c r="G72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="F73" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s">
         <v>213</v>
       </c>
     </row>
